--- a/Output/Chock_Regional_2013_68.xlsx
+++ b/Output/Chock_Regional_2013_68.xlsx
@@ -2336,7 +2336,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2544,7 +2544,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2576,7 +2576,7 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2592,7 +2592,7 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2648,7 +2648,7 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2672,7 +2672,7 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2704,7 +2704,7 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2720,7 +2720,7 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2736,7 +2736,7 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2768,7 +2768,7 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2776,7 +2776,7 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
